--- a/レイアウト.xlsx
+++ b/レイアウト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\立川Red&amp;Blue\ホームページ\改装版\trabwe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7519E13-D0B3-481F-AC76-2C890CEBDC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE058F35-4271-48F0-8E19-5399006E6FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F4FB82C8-1FF5-4F9A-A981-91C82DAFD553}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>home:100%</t>
     <phoneticPr fontId="1"/>
@@ -53,15 +54,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>main2:100%
-Twitter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>main1:100%
+    <t>10% ロゴとメニューのところ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new:100%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">main:100%
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flex:100%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newsblock:100%
 更新履歴</t>
-    <rPh sb="11" eb="15">
+    <rPh sb="15" eb="19">
       <t>コウシンリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweet_sh:100%
+更新履歴</t>
+    <rPh sb="14" eb="18">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ表示:14.5</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -95,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -103,30 +131,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,88 +549,88 @@
   <sheetFormatPr defaultColWidth="17.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>0.1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -549,169 +647,300 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6CB97A-4DC9-450E-9589-2CA30129CB10}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F1" s="4"/>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="9">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D24" s="7">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D25" s="7">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D26" s="7">
+        <v>30</v>
+      </c>
+      <c r="E26" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D27" s="7">
+        <v>40</v>
+      </c>
+      <c r="E27" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D28" s="7">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D29" s="7">
+        <v>60</v>
+      </c>
+      <c r="E29" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D30" s="7">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D31" s="7">
+        <v>80</v>
+      </c>
+      <c r="E31" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D32" s="7">
+        <v>90</v>
+      </c>
+      <c r="E32" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D33" s="7">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F36">
+        <f>95-9.5</f>
+        <v>85.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="G1:G10"/>
     <mergeCell ref="A11:A20"/>
     <mergeCell ref="B11:B20"/>
     <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D1:D10"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="G12:G21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/レイアウト.xlsx
+++ b/レイアウト.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\立川Red&amp;Blue\ホームページ\改装版\trabwe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ホムペ\renewal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE058F35-4271-48F0-8E19-5399006E6FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F4FB82C8-1FF5-4F9A-A981-91C82DAFD553}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>home:100%</t>
     <phoneticPr fontId="1"/>
@@ -97,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,13 +187,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -205,26 +200,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,105 +534,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192B612-C4D7-4D71-9F0E-B3E4976EF8D7}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="5"/>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="E1:E10"/>
     <mergeCell ref="A1:A10"/>
     <mergeCell ref="B1:B10"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="C1:C10"/>
+    <mergeCell ref="D1:D10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -646,285 +648,285 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6CB97A-4DC9-450E-9589-2CA30129CB10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F1" s="4"/>
-      <c r="G1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F1" s="3"/>
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="9">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="7">
         <v>85.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="8" t="s">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D24" s="7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D24" s="4">
         <v>10</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D25" s="7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D25" s="4">
         <v>20</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D26" s="7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D26" s="4">
         <v>30</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D27" s="7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D27" s="4">
         <v>40</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D28" s="7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D28" s="4">
         <v>50</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D29" s="7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D29" s="4">
         <v>60</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D30" s="7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D30" s="4">
         <v>70</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D31" s="7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D31" s="4">
         <v>80</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D32" s="7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D32" s="4">
         <v>90</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D33" s="7">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D33" s="4">
         <v>100</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F36">
         <f>95-9.5</f>
         <v>85.5</v>
